--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
@@ -400,25 +400,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.42190946800268</v>
+        <v>1.414509557120016</v>
       </c>
       <c r="C2">
-        <v>1.324310289510515</v>
+        <v>1.320195973509991</v>
       </c>
       <c r="D2">
-        <v>4.051397441044322</v>
+        <v>3.99283691009699</v>
       </c>
       <c r="E2">
-        <v>1.353593429178068</v>
+        <v>1.346585525682575</v>
       </c>
       <c r="F2">
-        <v>1.421414618967719</v>
+        <v>1.414055654904187</v>
       </c>
       <c r="G2">
-        <v>1.384615479123636</v>
+        <v>1.378958854892205</v>
       </c>
       <c r="H2">
-        <v>1.354221659694327</v>
+        <v>1.346982622402224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.432029230025849</v>
+        <v>1.425213289967862</v>
       </c>
       <c r="C3">
-        <v>1.329052695287818</v>
+        <v>1.325315907228027</v>
       </c>
       <c r="D3">
-        <v>3.27897710320885</v>
+        <v>3.23283331388647</v>
       </c>
       <c r="E3">
-        <v>1.35411234183089</v>
+        <v>1.347817107110185</v>
       </c>
       <c r="F3">
-        <v>1.425130117157034</v>
+        <v>1.418476688626426</v>
       </c>
       <c r="G3">
-        <v>1.377363261649236</v>
+        <v>1.372112685789044</v>
       </c>
       <c r="H3">
-        <v>1.354350593411535</v>
+        <v>1.347828200706768</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,25 +452,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.396166702990912</v>
+        <v>1.390138974964715</v>
       </c>
       <c r="C4">
-        <v>1.369444144067564</v>
+        <v>1.36634262392983</v>
       </c>
       <c r="D4">
-        <v>3.808534299211174</v>
+        <v>3.743511689471815</v>
       </c>
       <c r="E4">
-        <v>1.348175296430889</v>
+        <v>1.342443321396813</v>
       </c>
       <c r="F4">
-        <v>1.400028252037379</v>
+        <v>1.393836101180278</v>
       </c>
       <c r="G4">
-        <v>1.38773311681167</v>
+        <v>1.383240013895821</v>
       </c>
       <c r="H4">
-        <v>1.348695282420205</v>
+        <v>1.342718102337791</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,25 +478,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.430096272749267</v>
+        <v>1.423685679465119</v>
       </c>
       <c r="C5">
-        <v>1.412678436293289</v>
+        <v>1.409259220543114</v>
       </c>
       <c r="D5">
-        <v>2.323406481912731</v>
+        <v>2.286912720564253</v>
       </c>
       <c r="E5">
-        <v>1.356076042809345</v>
+        <v>1.350032931609149</v>
       </c>
       <c r="F5">
-        <v>1.420641873004389</v>
+        <v>1.414522073045725</v>
       </c>
       <c r="G5">
-        <v>1.404856797040526</v>
+        <v>1.399850874782828</v>
       </c>
       <c r="H5">
-        <v>1.356253663266587</v>
+        <v>1.349992015156981</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -504,25 +504,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.435292095929674</v>
+        <v>1.428914950493217</v>
       </c>
       <c r="C6">
-        <v>1.413337397383989</v>
+        <v>1.409908246290728</v>
       </c>
       <c r="D6">
-        <v>0.5332920078019564</v>
+        <v>0.5354154108338075</v>
       </c>
       <c r="E6">
-        <v>1.357994596403087</v>
+        <v>1.352104465373867</v>
       </c>
       <c r="F6">
-        <v>1.425541587008025</v>
+        <v>1.419532925750195</v>
       </c>
       <c r="G6">
-        <v>1.388934060592449</v>
+        <v>1.384591965316204</v>
       </c>
       <c r="H6">
-        <v>1.35793941789825</v>
+        <v>1.351843737668598</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.420291292860427</v>
+        <v>1.413520031540223</v>
       </c>
       <c r="C7">
-        <v>1.418515117739277</v>
+        <v>1.414435199910633</v>
       </c>
       <c r="D7">
-        <v>0.9161270820409766</v>
+        <v>0.9101152687398403</v>
       </c>
       <c r="E7">
-        <v>1.356606662387238</v>
+        <v>1.3502050541849</v>
       </c>
       <c r="F7">
-        <v>1.41140777617231</v>
+        <v>1.404978498878209</v>
       </c>
       <c r="G7">
-        <v>1.396064852161582</v>
+        <v>1.390972419996553</v>
       </c>
       <c r="H7">
-        <v>1.356560024458425</v>
+        <v>1.349955890124776</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -556,25 +556,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.425703090062145</v>
+        <v>1.419552146857844</v>
       </c>
       <c r="C8">
-        <v>1.29091888071782</v>
+        <v>1.286428854980599</v>
       </c>
       <c r="D8">
-        <v>1.149973693686015</v>
+        <v>1.149297017754302</v>
       </c>
       <c r="E8">
-        <v>1.346412733317828</v>
+        <v>1.34067164994444</v>
       </c>
       <c r="F8">
-        <v>1.415349411907194</v>
+        <v>1.409312192220709</v>
       </c>
       <c r="G8">
-        <v>1.312761301097031</v>
+        <v>1.307684694103238</v>
       </c>
       <c r="H8">
-        <v>1.346642585030843</v>
+        <v>1.340676964773855</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -582,25 +582,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.432531936025836</v>
+        <v>1.426263507133462</v>
       </c>
       <c r="C9">
-        <v>1.369327592533421</v>
+        <v>1.366023141857575</v>
       </c>
       <c r="D9">
-        <v>0.8347929926995089</v>
+        <v>0.8337038804962449</v>
       </c>
       <c r="E9">
-        <v>1.350787556055375</v>
+        <v>1.344961376309288</v>
       </c>
       <c r="F9">
-        <v>1.425297645130048</v>
+        <v>1.419164020447879</v>
       </c>
       <c r="G9">
-        <v>1.36410775957613</v>
+        <v>1.359680543457173</v>
       </c>
       <c r="H9">
-        <v>1.351395334290045</v>
+        <v>1.345344167322881</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.231004033611632</v>
+        <v>1.225441711943755</v>
       </c>
       <c r="C10">
-        <v>1.413867566556316</v>
+        <v>1.409810408930862</v>
       </c>
       <c r="D10">
-        <v>3.055288371695732</v>
+        <v>2.973400820959878</v>
       </c>
       <c r="E10">
-        <v>1.344552337962763</v>
+        <v>1.338037341956309</v>
       </c>
       <c r="F10">
-        <v>1.278853357060356</v>
+        <v>1.27224744976302</v>
       </c>
       <c r="G10">
-        <v>1.409088499683749</v>
+        <v>1.403891052508206</v>
       </c>
       <c r="H10">
-        <v>1.345679047477052</v>
+        <v>1.339021721330763</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.189488548717063</v>
+        <v>1.183188477810487</v>
       </c>
       <c r="C11">
-        <v>1.418065530165008</v>
+        <v>1.414360880002128</v>
       </c>
       <c r="D11">
-        <v>2.641068302515418</v>
+        <v>2.583480844780979</v>
       </c>
       <c r="E11">
-        <v>1.347015792296705</v>
+        <v>1.339872308311112</v>
       </c>
       <c r="F11">
-        <v>1.239952669226405</v>
+        <v>1.232365762670961</v>
       </c>
       <c r="G11">
-        <v>1.406601035876134</v>
+        <v>1.400737064552017</v>
       </c>
       <c r="H11">
-        <v>1.347693730587054</v>
+        <v>1.340293742975246</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,25 +660,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.9809766685492183</v>
+        <v>0.9765449706184237</v>
       </c>
       <c r="C12">
-        <v>1.40945584109297</v>
+        <v>1.405296775565357</v>
       </c>
       <c r="D12">
-        <v>1.236464338914631</v>
+        <v>1.194841888868514</v>
       </c>
       <c r="E12">
-        <v>1.331404761496812</v>
+        <v>1.324747553747766</v>
       </c>
       <c r="F12">
-        <v>1.006376392834603</v>
+        <v>0.9993215601058449</v>
       </c>
       <c r="G12">
-        <v>1.378283075350788</v>
+        <v>1.373175483619289</v>
       </c>
       <c r="H12">
-        <v>1.331189660757064</v>
+        <v>1.324371252076056</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -686,25 +686,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.217513627245137</v>
+        <v>1.21168381432692</v>
       </c>
       <c r="C13">
-        <v>1.41223740403062</v>
+        <v>1.408286739559427</v>
       </c>
       <c r="D13">
-        <v>2.551761071955989</v>
+        <v>2.47231477791947</v>
       </c>
       <c r="E13">
-        <v>1.342536249154441</v>
+        <v>1.335620606451476</v>
       </c>
       <c r="F13">
-        <v>1.256656708171647</v>
+        <v>1.24896039519903</v>
       </c>
       <c r="G13">
-        <v>1.398757084842761</v>
+        <v>1.392783088423188</v>
       </c>
       <c r="H13">
-        <v>1.343162243586383</v>
+        <v>1.336020726629191</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_hoog.xlsx
@@ -406,19 +406,19 @@
         <v>1.320195973509991</v>
       </c>
       <c r="D2">
-        <v>3.99283691009699</v>
+        <v>3.992836910096988</v>
       </c>
       <c r="E2">
         <v>1.346585525682575</v>
       </c>
       <c r="F2">
-        <v>1.414055654904187</v>
+        <v>1.414055654904186</v>
       </c>
       <c r="G2">
         <v>1.378958854892205</v>
       </c>
       <c r="H2">
-        <v>1.346982622402224</v>
+        <v>1.346982622402223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -426,25 +426,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.425213289967862</v>
+        <v>1.425213289967863</v>
       </c>
       <c r="C3">
-        <v>1.325315907228027</v>
+        <v>1.325315907228028</v>
       </c>
       <c r="D3">
-        <v>3.23283331388647</v>
+        <v>3.232833313886473</v>
       </c>
       <c r="E3">
-        <v>1.347817107110185</v>
+        <v>1.347817107110186</v>
       </c>
       <c r="F3">
-        <v>1.418476688626426</v>
+        <v>1.418476688626427</v>
       </c>
       <c r="G3">
-        <v>1.372112685789044</v>
+        <v>1.372112685789045</v>
       </c>
       <c r="H3">
-        <v>1.347828200706768</v>
+        <v>1.34782820070677</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -464,13 +464,13 @@
         <v>1.342443321396813</v>
       </c>
       <c r="F4">
-        <v>1.393836101180278</v>
+        <v>1.393836101180277</v>
       </c>
       <c r="G4">
         <v>1.383240013895821</v>
       </c>
       <c r="H4">
-        <v>1.342718102337791</v>
+        <v>1.342718102337792</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,7 +484,7 @@
         <v>1.409259220543114</v>
       </c>
       <c r="D5">
-        <v>2.286912720564253</v>
+        <v>2.286912720564254</v>
       </c>
       <c r="E5">
         <v>1.350032931609149</v>
@@ -507,7 +507,7 @@
         <v>1.428914950493217</v>
       </c>
       <c r="C6">
-        <v>1.409908246290728</v>
+        <v>1.409908246290729</v>
       </c>
       <c r="D6">
         <v>0.5354154108338075</v>
@@ -522,7 +522,7 @@
         <v>1.384591965316204</v>
       </c>
       <c r="H6">
-        <v>1.351843737668598</v>
+        <v>1.351843737668599</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -530,25 +530,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.413520031540223</v>
+        <v>1.413520031540222</v>
       </c>
       <c r="C7">
         <v>1.414435199910633</v>
       </c>
       <c r="D7">
-        <v>0.9101152687398403</v>
+        <v>0.9101152687398397</v>
       </c>
       <c r="E7">
         <v>1.3502050541849</v>
       </c>
       <c r="F7">
-        <v>1.404978498878209</v>
+        <v>1.404978498878208</v>
       </c>
       <c r="G7">
         <v>1.390972419996553</v>
       </c>
       <c r="H7">
-        <v>1.349955890124776</v>
+        <v>1.349955890124775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,7 +562,7 @@
         <v>1.286428854980599</v>
       </c>
       <c r="D8">
-        <v>1.149297017754302</v>
+        <v>1.149297017754301</v>
       </c>
       <c r="E8">
         <v>1.34067164994444</v>
@@ -571,10 +571,10 @@
         <v>1.409312192220709</v>
       </c>
       <c r="G8">
-        <v>1.307684694103238</v>
+        <v>1.307684694103237</v>
       </c>
       <c r="H8">
-        <v>1.340676964773855</v>
+        <v>1.340676964773854</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,7 +588,7 @@
         <v>1.366023141857575</v>
       </c>
       <c r="D9">
-        <v>0.8337038804962449</v>
+        <v>0.8337038804962448</v>
       </c>
       <c r="E9">
         <v>1.344961376309288</v>
@@ -600,7 +600,7 @@
         <v>1.359680543457173</v>
       </c>
       <c r="H9">
-        <v>1.345344167322881</v>
+        <v>1.34534416732288</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -608,25 +608,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.225441711943755</v>
+        <v>1.225441711943756</v>
       </c>
       <c r="C10">
-        <v>1.409810408930862</v>
+        <v>1.409810408930863</v>
       </c>
       <c r="D10">
-        <v>2.973400820959878</v>
+        <v>2.973400820959877</v>
       </c>
       <c r="E10">
-        <v>1.338037341956309</v>
+        <v>1.33803734195631</v>
       </c>
       <c r="F10">
-        <v>1.27224744976302</v>
+        <v>1.272247449763021</v>
       </c>
       <c r="G10">
-        <v>1.403891052508206</v>
+        <v>1.403891052508207</v>
       </c>
       <c r="H10">
-        <v>1.339021721330763</v>
+        <v>1.339021721330762</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -634,25 +634,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.183188477810487</v>
+        <v>1.183188477810486</v>
       </c>
       <c r="C11">
-        <v>1.414360880002128</v>
+        <v>1.414360880002127</v>
       </c>
       <c r="D11">
-        <v>2.583480844780979</v>
+        <v>2.583480844780975</v>
       </c>
       <c r="E11">
-        <v>1.339872308311112</v>
+        <v>1.339872308311111</v>
       </c>
       <c r="F11">
-        <v>1.232365762670961</v>
+        <v>1.23236576267096</v>
       </c>
       <c r="G11">
-        <v>1.400737064552017</v>
+        <v>1.400737064552015</v>
       </c>
       <c r="H11">
-        <v>1.340293742975246</v>
+        <v>1.340293742975245</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -660,22 +660,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.9765449706184237</v>
+        <v>0.9765449706184234</v>
       </c>
       <c r="C12">
-        <v>1.405296775565357</v>
+        <v>1.405296775565356</v>
       </c>
       <c r="D12">
-        <v>1.194841888868514</v>
+        <v>1.194841888868513</v>
       </c>
       <c r="E12">
         <v>1.324747553747766</v>
       </c>
       <c r="F12">
-        <v>0.9993215601058449</v>
+        <v>0.9993215601058448</v>
       </c>
       <c r="G12">
-        <v>1.373175483619289</v>
+        <v>1.373175483619288</v>
       </c>
       <c r="H12">
         <v>1.324371252076056</v>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.21168381432692</v>
+        <v>1.211683814326919</v>
       </c>
       <c r="C13">
         <v>1.408286739559427</v>
@@ -695,7 +695,7 @@
         <v>2.47231477791947</v>
       </c>
       <c r="E13">
-        <v>1.335620606451476</v>
+        <v>1.335620606451475</v>
       </c>
       <c r="F13">
         <v>1.24896039519903</v>
